--- a/Data/LLM result/LLM_generate_strings/GPT4o/without examples/output_B.xlsx
+++ b/Data/LLM result/LLM_generate_strings/GPT4o/without examples/output_B.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\4o\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coverage\Data\LLM result\LLM_generate_strings\GPT4o\without examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC6274B-6EFC-4087-BD22-66C92BC7F452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12720"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25580" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6154" uniqueCount="3119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6155" uniqueCount="3120">
   <si>
     <t>Short Description</t>
   </si>
@@ -11426,11 +11427,14 @@
     <t>Regex</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>No or loop 1 or 01, and end by 0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -11804,14 +11808,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1540"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -13186,6 +13190,9 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>3119</v>
+      </c>
       <c r="B99" t="s">
         <v>231</v>
       </c>
